--- a/sources/case/Join.xlsx
+++ b/sources/case/Join.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\apis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,102 +16,100 @@
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Path</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>确认到岗</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Join</t>
+  </si>
+  <si>
+    <t>BasePath</t>
+  </si>
+  <si>
+    <t>http://console.t.upvi.com/bapi</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>contentType</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>CaseID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/hr/v1/formrecords/{uuid}?form=employee</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>确认到岗</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>Join</t>
-  </si>
-  <si>
-    <t>BasePath</t>
-  </si>
-  <si>
-    <t>http://console.t.upvi.com/bapi</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>contentType</t>
-  </si>
-  <si>
-    <t>application/json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uuid</t>
-  </si>
-  <si>
-    <t>${addMember.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>probation</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>employee_no</t>
-  </si>
-  <si>
-    <t>is_deleted</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.uuid}</t>
+  </si>
+  <si>
+    <t>Join_2</t>
   </si>
   <si>
     <t>organization</t>
-  </si>
-  <si>
-    <t>organization_ID</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>is_onboarding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>position</t>
-  </si>
-  <si>
-    <t>position_ID</t>
-  </si>
-  <si>
-    <t>CaseID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Join_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +442,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -459,42 +457,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -505,38 +503,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -547,75 +557,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Join.xlsx
+++ b/sources/case/Join.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -101,7 +101,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>organization_1</t>
+    <t>${organization_1.name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,7 +109,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>position_2</t>
+    <t>${position_2.name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -559,15 +559,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/sources/case/Join.xlsx
+++ b/sources/case/Join.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>Path</t>
   </si>
@@ -110,6 +110,43 @@
   </si>
   <si>
     <t>${position_2.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join_15</t>
+  </si>
+  <si>
+    <t>Join_16</t>
+  </si>
+  <si>
+    <t>Join_17</t>
+  </si>
+  <si>
+    <t>${addMem_13.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_15.uuid}</t>
+  </si>
+  <si>
+    <t>${addMem_16.uuid}</t>
+  </si>
+  <si>
+    <t>${addMem_17.uuid}</t>
+  </si>
+  <si>
+    <t>${organization_2.name}</t>
+  </si>
+  <si>
+    <t>Join_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_1.name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -503,10 +540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -549,18 +586,63 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -613,6 +695,62 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
